--- a/ideas/OLR/xls_standard_input_IDEAS.xlsx
+++ b/ideas/OLR/xls_standard_input_IDEAS.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="983">
   <si>
     <t>text</t>
   </si>
@@ -2153,9 +2153,6 @@
   </si>
   <si>
     <t>Reynolds, Roger</t>
-  </si>
-  <si>
-    <t>Full Performance (YouTube) @ https://www.youtube.com/watch?v=G_-lrGhHQ4Q</t>
   </si>
   <si>
     <t>Yadegari, Shahrokh</t>
@@ -3106,6 +3103,33 @@
   </si>
   <si>
     <t>ideas-spellbound-9_8742325078_o.jpg</t>
+  </si>
+  <si>
+    <t>Drashner, Nick</t>
+  </si>
+  <si>
+    <t>Saturday, May 11, 2013</t>
+  </si>
+  <si>
+    <t>2013-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This performative exploration, Spellbound, by Nicholas Drashner, is part of the Calit2 Initiative for Digital Exploration of Arts and Sciences (IDEAS).
+Spellbound is an exploration in interactive audiovisual art that explores ways of allowing users to effect audiovisual and musical content through a network of parameter-control assignments. As audience members navigate the space, position and gestural input are captured using a Microsoft Kinect, and the data is used to effect form on various time scales; some are immediate and others are of larger section and phrase manipulation.
+The visual engine is a built-from-scratch OpenGL graphics program running on a laptop. It exchanges data points (like audio, collision, and scene) over the network with the custom-built MaxMSP/Ableton audio server. All the rendering data is then sent over the network to the head node computer that runs the high-resolution vRoom wall using Mugic, and all the audio is output from the audio server to the system in the room.
+</t>
+  </si>
+  <si>
+    <t>Nicholas Drashner is a sound designer, composer, and interdisciplinary artist. He holds an MFA in Sound Design for Theatre and Dance, and a BA in Interdisciplinary Computing in the Arts, both from University of California, San Diego. In his work he often explores immersive sonic environments that merge organic and stylized/synthetic soundscape elements to augment the perceived aural environment both in the type of the sounds that inhabit the space as well as the character of the space itself. Aside from his sound design work, he also programs musical software for creative application and teaches adjunct at University of California San Diego in the Theatre and Dance department.</t>
+  </si>
+  <si>
+    <t>IDEAS Performance via YouTube @ https://www.youtube.com/watch?v=G_-lrGhHQ4Q</t>
+  </si>
+  <si>
+    <t>IDEAS Performance via YouTube @ https://www.youtube.com/watch?v=n4vdGfmxnzA&amp;list=PLbbCsk7MUIGfUJ0bjv7Iu7nT9pjj-4vpj</t>
+  </si>
+  <si>
+    <t>Program on Calit2 @ http://www.calit2.net/events/popup.php?id=2160</t>
   </si>
 </sst>
 </file>
@@ -4139,10 +4163,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H196" sqref="H196"/>
+      <selection pane="bottomLeft" activeCell="T196" sqref="T196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,7 +4263,7 @@
         <v>485</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>0</v>
@@ -4251,25 +4275,25 @@
         <v>358</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>863</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>872</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -4286,7 +4310,7 @@
         <v>671</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>667</v>
@@ -4304,10 +4328,10 @@
         <v>670</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>672</v>
+        <v>980</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4315,7 +4339,7 @@
         <v>664</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>662</v>
@@ -4330,7 +4354,7 @@
         <v>358</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4338,7 +4362,7 @@
         <v>664</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>631</v>
@@ -4353,7 +4377,7 @@
         <v>361</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -4375,7 +4399,7 @@
         <v>664</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>642</v>
@@ -4390,7 +4414,7 @@
         <v>361</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4398,7 +4422,7 @@
         <v>664</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>653</v>
@@ -4413,7 +4437,7 @@
         <v>361</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4421,7 +4445,7 @@
         <v>664</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>656</v>
@@ -4436,7 +4460,7 @@
         <v>361</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -4444,7 +4468,7 @@
         <v>664</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>657</v>
@@ -4459,7 +4483,7 @@
         <v>361</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -4467,7 +4491,7 @@
         <v>664</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>658</v>
@@ -4482,7 +4506,7 @@
         <v>361</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4490,7 +4514,7 @@
         <v>664</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>659</v>
@@ -4505,7 +4529,7 @@
         <v>361</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4513,7 +4537,7 @@
         <v>664</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>660</v>
@@ -4528,7 +4552,7 @@
         <v>361</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -4536,7 +4560,7 @@
         <v>664</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>661</v>
@@ -4551,7 +4575,7 @@
         <v>361</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -4559,7 +4583,7 @@
         <v>664</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>632</v>
@@ -4574,7 +4598,7 @@
         <v>361</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -4582,7 +4606,7 @@
         <v>664</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>633</v>
@@ -4597,7 +4621,7 @@
         <v>361</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -4605,7 +4629,7 @@
         <v>664</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>634</v>
@@ -4620,7 +4644,7 @@
         <v>361</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4628,7 +4652,7 @@
         <v>664</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>635</v>
@@ -4643,7 +4667,7 @@
         <v>361</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4651,7 +4675,7 @@
         <v>664</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>636</v>
@@ -4666,7 +4690,7 @@
         <v>361</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4674,7 +4698,7 @@
         <v>664</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>637</v>
@@ -4689,7 +4713,7 @@
         <v>361</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4697,7 +4721,7 @@
         <v>664</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>638</v>
@@ -4712,7 +4736,7 @@
         <v>361</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4720,7 +4744,7 @@
         <v>664</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>639</v>
@@ -4735,7 +4759,7 @@
         <v>361</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4743,7 +4767,7 @@
         <v>664</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>640</v>
@@ -4758,7 +4782,7 @@
         <v>361</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4766,7 +4790,7 @@
         <v>664</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>641</v>
@@ -4781,7 +4805,7 @@
         <v>361</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4789,7 +4813,7 @@
         <v>664</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>643</v>
@@ -4804,7 +4828,7 @@
         <v>361</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4812,7 +4836,7 @@
         <v>664</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>644</v>
@@ -4827,7 +4851,7 @@
         <v>361</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4835,7 +4859,7 @@
         <v>664</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>645</v>
@@ -4850,7 +4874,7 @@
         <v>361</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4858,7 +4882,7 @@
         <v>664</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>646</v>
@@ -4873,7 +4897,7 @@
         <v>361</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4881,7 +4905,7 @@
         <v>664</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>647</v>
@@ -4896,7 +4920,7 @@
         <v>361</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4904,7 +4928,7 @@
         <v>664</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>648</v>
@@ -4919,7 +4943,7 @@
         <v>361</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4927,7 +4951,7 @@
         <v>664</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>649</v>
@@ -4942,7 +4966,7 @@
         <v>361</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4950,7 +4974,7 @@
         <v>664</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>650</v>
@@ -4965,7 +4989,7 @@
         <v>361</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4973,7 +4997,7 @@
         <v>664</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>651</v>
@@ -4988,7 +5012,7 @@
         <v>361</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -4996,7 +5020,7 @@
         <v>664</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>652</v>
@@ -5011,7 +5035,7 @@
         <v>361</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -5019,7 +5043,7 @@
         <v>664</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>654</v>
@@ -5034,7 +5058,7 @@
         <v>361</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -5042,7 +5066,7 @@
         <v>664</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>655</v>
@@ -5057,7 +5081,7 @@
         <v>361</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -5065,7 +5089,7 @@
         <v>664</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>666</v>
@@ -5080,7 +5104,7 @@
         <v>361</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -5091,41 +5115,41 @@
         <v>485</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L37" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="M37" s="18" t="s">
         <v>744</v>
       </c>
-      <c r="M37" s="18" t="s">
+      <c r="N37" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="O37" s="18" t="s">
         <v>745</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>745</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>746</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R37" s="18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="S37" s="18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="T37" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -5133,10 +5157,10 @@
         <v>665</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>376</v>
@@ -5148,7 +5172,7 @@
         <v>358</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -5169,10 +5193,10 @@
         <v>665</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>0</v>
@@ -5184,7 +5208,7 @@
         <v>358</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -5192,10 +5216,10 @@
         <v>665</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>341</v>
@@ -5207,7 +5231,7 @@
         <v>361</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -5215,10 +5239,10 @@
         <v>665</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>341</v>
@@ -5230,7 +5254,7 @@
         <v>361</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -5238,10 +5262,10 @@
         <v>665</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>341</v>
@@ -5253,7 +5277,7 @@
         <v>361</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -5261,10 +5285,10 @@
         <v>665</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>341</v>
@@ -5276,7 +5300,7 @@
         <v>361</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -5284,10 +5308,10 @@
         <v>665</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>341</v>
@@ -5299,7 +5323,7 @@
         <v>361</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -5307,10 +5331,10 @@
         <v>665</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>341</v>
@@ -5322,7 +5346,7 @@
         <v>361</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -5330,10 +5354,10 @@
         <v>665</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>341</v>
@@ -5345,7 +5369,7 @@
         <v>361</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -5353,10 +5377,10 @@
         <v>665</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>341</v>
@@ -5368,7 +5392,7 @@
         <v>361</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -5376,10 +5400,10 @@
         <v>665</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>341</v>
@@ -5391,7 +5415,7 @@
         <v>361</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5399,10 +5423,10 @@
         <v>665</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>341</v>
@@ -5414,7 +5438,7 @@
         <v>361</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5422,10 +5446,10 @@
         <v>665</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>341</v>
@@ -5437,7 +5461,7 @@
         <v>361</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5445,10 +5469,10 @@
         <v>665</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>341</v>
@@ -5460,7 +5484,7 @@
         <v>361</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5468,10 +5492,10 @@
         <v>665</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>341</v>
@@ -5483,7 +5507,7 @@
         <v>361</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5491,10 +5515,10 @@
         <v>665</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>341</v>
@@ -5506,7 +5530,7 @@
         <v>361</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5514,10 +5538,10 @@
         <v>665</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>341</v>
@@ -5529,7 +5553,7 @@
         <v>361</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5537,10 +5561,10 @@
         <v>665</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>341</v>
@@ -5552,7 +5576,7 @@
         <v>361</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5560,10 +5584,10 @@
         <v>665</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>341</v>
@@ -5575,7 +5599,7 @@
         <v>361</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5583,10 +5607,10 @@
         <v>665</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>341</v>
@@ -5598,7 +5622,7 @@
         <v>361</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -5606,10 +5630,10 @@
         <v>665</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>341</v>
@@ -5621,7 +5645,7 @@
         <v>361</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,10 +5653,10 @@
         <v>665</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>341</v>
@@ -5644,7 +5668,7 @@
         <v>361</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5652,10 +5676,10 @@
         <v>665</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>341</v>
@@ -5667,7 +5691,7 @@
         <v>361</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5675,10 +5699,10 @@
         <v>665</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>341</v>
@@ -5690,7 +5714,7 @@
         <v>361</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -5698,10 +5722,10 @@
         <v>665</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>341</v>
@@ -5713,7 +5737,7 @@
         <v>361</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5721,10 +5745,10 @@
         <v>665</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>341</v>
@@ -5736,7 +5760,7 @@
         <v>361</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5744,10 +5768,10 @@
         <v>665</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>341</v>
@@ -5759,7 +5783,7 @@
         <v>361</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -5767,10 +5791,10 @@
         <v>665</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>341</v>
@@ -5782,7 +5806,7 @@
         <v>361</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5790,10 +5814,10 @@
         <v>665</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>341</v>
@@ -5805,7 +5829,7 @@
         <v>361</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,10 +5837,10 @@
         <v>665</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>341</v>
@@ -5828,7 +5852,7 @@
         <v>361</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5836,10 +5860,10 @@
         <v>665</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>341</v>
@@ -5851,7 +5875,7 @@
         <v>361</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,10 +5883,10 @@
         <v>665</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>341</v>
@@ -5874,7 +5898,7 @@
         <v>361</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5882,10 +5906,10 @@
         <v>665</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>341</v>
@@ -5897,7 +5921,7 @@
         <v>361</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5905,10 +5929,10 @@
         <v>665</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>341</v>
@@ -5920,7 +5944,7 @@
         <v>361</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5928,10 +5952,10 @@
         <v>665</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>341</v>
@@ -5943,7 +5967,7 @@
         <v>361</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5951,10 +5975,10 @@
         <v>665</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>341</v>
@@ -5966,7 +5990,7 @@
         <v>361</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,10 +5998,10 @@
         <v>665</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>341</v>
@@ -5989,7 +6013,7 @@
         <v>361</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5997,10 +6021,10 @@
         <v>665</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>341</v>
@@ -6012,7 +6036,7 @@
         <v>361</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -6020,10 +6044,10 @@
         <v>665</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>341</v>
@@ -6035,7 +6059,7 @@
         <v>361</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -6043,10 +6067,10 @@
         <v>665</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>341</v>
@@ -6058,7 +6082,7 @@
         <v>361</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,10 +6090,10 @@
         <v>665</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>341</v>
@@ -6081,7 +6105,7 @@
         <v>361</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,10 +6113,10 @@
         <v>665</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>341</v>
@@ -6104,7 +6128,7 @@
         <v>361</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6112,10 +6136,10 @@
         <v>665</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>341</v>
@@ -6127,7 +6151,7 @@
         <v>361</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -6135,10 +6159,10 @@
         <v>665</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>341</v>
@@ -6150,7 +6174,7 @@
         <v>361</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -6158,10 +6182,10 @@
         <v>665</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>341</v>
@@ -6173,7 +6197,7 @@
         <v>361</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -6181,10 +6205,10 @@
         <v>665</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>341</v>
@@ -6196,7 +6220,7 @@
         <v>361</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -6204,10 +6228,10 @@
         <v>665</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>341</v>
@@ -6219,7 +6243,7 @@
         <v>361</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -6227,10 +6251,10 @@
         <v>665</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>341</v>
@@ -6242,7 +6266,7 @@
         <v>361</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -6250,10 +6274,10 @@
         <v>665</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>341</v>
@@ -6265,7 +6289,7 @@
         <v>361</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6273,10 +6297,10 @@
         <v>665</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>341</v>
@@ -6288,7 +6312,7 @@
         <v>361</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -6296,10 +6320,10 @@
         <v>665</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>341</v>
@@ -6311,7 +6335,7 @@
         <v>361</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,10 +6343,10 @@
         <v>665</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>341</v>
@@ -6334,7 +6358,7 @@
         <v>361</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6342,10 +6366,10 @@
         <v>665</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>341</v>
@@ -6357,7 +6381,7 @@
         <v>361</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,10 +6389,10 @@
         <v>665</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>341</v>
@@ -6380,7 +6404,7 @@
         <v>361</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6388,10 +6412,10 @@
         <v>665</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>341</v>
@@ -6403,7 +6427,7 @@
         <v>361</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -6411,10 +6435,10 @@
         <v>665</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>341</v>
@@ -6426,7 +6450,7 @@
         <v>361</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -6434,10 +6458,10 @@
         <v>665</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>341</v>
@@ -6449,7 +6473,7 @@
         <v>361</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,10 +6481,10 @@
         <v>665</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>341</v>
@@ -6472,7 +6496,7 @@
         <v>361</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6480,10 +6504,10 @@
         <v>665</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>341</v>
@@ -6495,7 +6519,7 @@
         <v>361</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -6503,10 +6527,10 @@
         <v>665</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>341</v>
@@ -6518,7 +6542,7 @@
         <v>361</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -6526,10 +6550,10 @@
         <v>665</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D98" s="18" t="s">
         <v>341</v>
@@ -6541,7 +6565,7 @@
         <v>361</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -6549,10 +6573,10 @@
         <v>665</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>341</v>
@@ -6564,7 +6588,7 @@
         <v>361</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -6572,10 +6596,10 @@
         <v>665</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>341</v>
@@ -6587,7 +6611,7 @@
         <v>361</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -6595,10 +6619,10 @@
         <v>665</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>341</v>
@@ -6610,7 +6634,7 @@
         <v>361</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -6618,10 +6642,10 @@
         <v>665</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>341</v>
@@ -6633,7 +6657,7 @@
         <v>361</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -6641,10 +6665,10 @@
         <v>665</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>341</v>
@@ -6656,7 +6680,7 @@
         <v>361</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -6664,10 +6688,10 @@
         <v>665</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>341</v>
@@ -6679,65 +6703,65 @@
         <v>361</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>485</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H105" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="K105" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="L105" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="I105" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="K105" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="L105" s="18" t="s">
+      <c r="M105" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="M105" s="18" t="s">
+      <c r="N105" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="O105" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="N105" s="18" t="s">
-        <v>788</v>
-      </c>
-      <c r="O105" s="18" t="s">
+      <c r="P105" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="P105" s="18" t="s">
-        <v>790</v>
-      </c>
       <c r="R105" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="S105" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="S105" s="18" t="s">
-        <v>793</v>
-      </c>
       <c r="T105" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="U105" s="18" t="s">
         <v>867</v>
-      </c>
-      <c r="U105" s="18" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>376</v>
@@ -6749,18 +6773,18 @@
         <v>358</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>0</v>
@@ -6772,18 +6796,18 @@
         <v>358</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>341</v>
@@ -6795,18 +6819,18 @@
         <v>361</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>341</v>
@@ -6818,18 +6842,18 @@
         <v>361</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>341</v>
@@ -6841,18 +6865,18 @@
         <v>361</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>341</v>
@@ -6864,18 +6888,18 @@
         <v>361</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>341</v>
@@ -6887,18 +6911,18 @@
         <v>361</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>341</v>
@@ -6910,18 +6934,18 @@
         <v>361</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>341</v>
@@ -6933,18 +6957,18 @@
         <v>361</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>341</v>
@@ -6956,18 +6980,18 @@
         <v>361</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>341</v>
@@ -6979,18 +7003,18 @@
         <v>361</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>341</v>
@@ -7002,18 +7026,18 @@
         <v>361</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>341</v>
@@ -7025,18 +7049,18 @@
         <v>361</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>341</v>
@@ -7048,18 +7072,18 @@
         <v>361</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>341</v>
@@ -7071,18 +7095,18 @@
         <v>361</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>341</v>
@@ -7094,18 +7118,18 @@
         <v>361</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>341</v>
@@ -7117,18 +7141,18 @@
         <v>361</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>341</v>
@@ -7140,18 +7164,18 @@
         <v>361</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>341</v>
@@ -7163,18 +7187,18 @@
         <v>361</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>341</v>
@@ -7186,18 +7210,18 @@
         <v>361</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>341</v>
@@ -7209,18 +7233,18 @@
         <v>361</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>341</v>
@@ -7232,18 +7256,18 @@
         <v>361</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>341</v>
@@ -7255,18 +7279,18 @@
         <v>361</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>341</v>
@@ -7278,18 +7302,18 @@
         <v>361</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>341</v>
@@ -7301,18 +7325,18 @@
         <v>361</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>341</v>
@@ -7324,18 +7348,18 @@
         <v>361</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>341</v>
@@ -7347,18 +7371,18 @@
         <v>361</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>341</v>
@@ -7370,18 +7394,18 @@
         <v>361</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>341</v>
@@ -7393,18 +7417,18 @@
         <v>361</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>341</v>
@@ -7416,18 +7440,18 @@
         <v>361</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>341</v>
@@ -7439,18 +7463,18 @@
         <v>361</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>341</v>
@@ -7462,18 +7486,18 @@
         <v>361</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>341</v>
@@ -7485,59 +7509,59 @@
         <v>361</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>485</v>
       </c>
       <c r="G139" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="H139" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="J139" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="K139" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="L139" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="M139" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="N139" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="O139" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="H139" s="18" t="s">
-        <v>903</v>
-      </c>
-      <c r="J139" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="K139" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="L139" s="18" t="s">
-        <v>904</v>
-      </c>
-      <c r="M139" s="18" t="s">
-        <v>905</v>
-      </c>
-      <c r="N139" s="18" t="s">
-        <v>905</v>
-      </c>
-      <c r="O139" s="18" t="s">
+      <c r="P139" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="P139" s="18" t="s">
+      <c r="S139" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="T139" s="18" t="s">
         <v>908</v>
-      </c>
-      <c r="S139" s="18" t="s">
-        <v>910</v>
-      </c>
-      <c r="T139" s="18" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>376</v>
@@ -7549,18 +7573,18 @@
         <v>358</v>
       </c>
       <c r="G140" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>0</v>
@@ -7572,18 +7596,18 @@
         <v>358</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>341</v>
@@ -7595,18 +7619,18 @@
         <v>361</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>341</v>
@@ -7618,18 +7642,18 @@
         <v>361</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>341</v>
@@ -7641,18 +7665,18 @@
         <v>361</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>341</v>
@@ -7664,18 +7688,18 @@
         <v>361</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>341</v>
@@ -7687,18 +7711,18 @@
         <v>361</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>341</v>
@@ -7710,18 +7734,18 @@
         <v>361</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>341</v>
@@ -7733,18 +7757,18 @@
         <v>361</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>341</v>
@@ -7756,18 +7780,18 @@
         <v>361</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>341</v>
@@ -7779,18 +7803,18 @@
         <v>361</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>341</v>
@@ -7802,18 +7826,18 @@
         <v>361</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>341</v>
@@ -7825,18 +7849,18 @@
         <v>361</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>341</v>
@@ -7848,18 +7872,18 @@
         <v>361</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>341</v>
@@ -7871,18 +7895,18 @@
         <v>361</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>341</v>
@@ -7894,18 +7918,18 @@
         <v>361</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>341</v>
@@ -7917,18 +7941,18 @@
         <v>361</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D157" s="18" t="s">
         <v>341</v>
@@ -7940,18 +7964,18 @@
         <v>361</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D158" s="18" t="s">
         <v>341</v>
@@ -7963,18 +7987,18 @@
         <v>361</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>341</v>
@@ -7986,18 +8010,18 @@
         <v>361</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>341</v>
@@ -8009,18 +8033,18 @@
         <v>361</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>341</v>
@@ -8032,18 +8056,18 @@
         <v>361</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>341</v>
@@ -8055,18 +8079,18 @@
         <v>361</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>341</v>
@@ -8078,18 +8102,18 @@
         <v>361</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>341</v>
@@ -8101,18 +8125,18 @@
         <v>361</v>
       </c>
       <c r="G164" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D165" s="18" t="s">
         <v>341</v>
@@ -8124,18 +8148,18 @@
         <v>361</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D166" s="18" t="s">
         <v>341</v>
@@ -8147,18 +8171,18 @@
         <v>361</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D167" s="18" t="s">
         <v>341</v>
@@ -8170,59 +8194,59 @@
         <v>361</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>485</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H168" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="J168" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="L168" s="18" t="s">
         <v>939</v>
       </c>
-      <c r="J168" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="L168" s="18" t="s">
+      <c r="M168" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="M168" s="18" t="s">
+      <c r="N168" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="O168" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="N168" s="18" t="s">
-        <v>941</v>
-      </c>
-      <c r="O168" s="18" t="s">
+      <c r="P168" s="18" t="s">
         <v>942</v>
       </c>
-      <c r="P168" s="18" t="s">
+      <c r="S168" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="S168" s="18" t="s">
+      <c r="T168" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="U168" s="18" t="s">
         <v>944</v>
-      </c>
-      <c r="T168" s="18" t="s">
-        <v>946</v>
-      </c>
-      <c r="U168" s="18" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D169" s="18" t="s">
         <v>376</v>
@@ -8234,18 +8258,18 @@
         <v>358</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D170" s="18" t="s">
         <v>0</v>
@@ -8257,18 +8281,18 @@
         <v>358</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>341</v>
@@ -8280,18 +8304,18 @@
         <v>361</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>341</v>
@@ -8303,18 +8327,18 @@
         <v>361</v>
       </c>
       <c r="G172" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D173" s="18" t="s">
         <v>341</v>
@@ -8326,18 +8350,18 @@
         <v>361</v>
       </c>
       <c r="G173" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D174" s="18" t="s">
         <v>341</v>
@@ -8349,18 +8373,18 @@
         <v>361</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D175" s="18" t="s">
         <v>341</v>
@@ -8372,18 +8396,18 @@
         <v>361</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D176" s="18" t="s">
         <v>341</v>
@@ -8395,18 +8419,18 @@
         <v>361</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D177" s="18" t="s">
         <v>341</v>
@@ -8418,18 +8442,18 @@
         <v>361</v>
       </c>
       <c r="G177" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D178" s="18" t="s">
         <v>341</v>
@@ -8441,18 +8465,18 @@
         <v>361</v>
       </c>
       <c r="G178" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D179" s="18" t="s">
         <v>341</v>
@@ -8464,18 +8488,18 @@
         <v>361</v>
       </c>
       <c r="G179" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D180" s="18" t="s">
         <v>341</v>
@@ -8487,18 +8511,18 @@
         <v>361</v>
       </c>
       <c r="G180" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D181" s="18" t="s">
         <v>341</v>
@@ -8510,18 +8534,18 @@
         <v>361</v>
       </c>
       <c r="G181" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D182" s="18" t="s">
         <v>341</v>
@@ -8533,18 +8557,18 @@
         <v>361</v>
       </c>
       <c r="G182" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D183" s="18" t="s">
         <v>341</v>
@@ -8556,18 +8580,18 @@
         <v>361</v>
       </c>
       <c r="G183" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D184" s="18" t="s">
         <v>341</v>
@@ -8579,18 +8603,18 @@
         <v>361</v>
       </c>
       <c r="G184" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D185" s="18" t="s">
         <v>341</v>
@@ -8602,18 +8626,18 @@
         <v>361</v>
       </c>
       <c r="G185" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D186" s="18" t="s">
         <v>341</v>
@@ -8625,18 +8649,18 @@
         <v>361</v>
       </c>
       <c r="G186" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D187" s="18" t="s">
         <v>341</v>
@@ -8648,18 +8672,18 @@
         <v>361</v>
       </c>
       <c r="G187" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D188" s="18" t="s">
         <v>341</v>
@@ -8671,18 +8695,18 @@
         <v>361</v>
       </c>
       <c r="G188" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D189" s="18" t="s">
         <v>341</v>
@@ -8694,18 +8718,18 @@
         <v>361</v>
       </c>
       <c r="G189" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D190" s="18" t="s">
         <v>341</v>
@@ -8717,18 +8741,18 @@
         <v>361</v>
       </c>
       <c r="G190" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D191" s="18" t="s">
         <v>341</v>
@@ -8740,121 +8764,148 @@
         <v>361</v>
       </c>
       <c r="G191" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E192" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F192" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G192" s="18" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F193" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G193" s="18" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E194" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F194" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G194" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F195" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G195" s="18" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="18" t="s">
         <v>870</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>928</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E192" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F192" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G192" s="18" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>929</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E193" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F193" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G193" s="18" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="B194" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>930</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E194" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F194" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G194" s="18" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="B195" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>931</v>
-      </c>
-      <c r="D195" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E195" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F195" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G195" s="18" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="18" t="s">
-        <v>871</v>
       </c>
       <c r="B196" s="18" t="s">
         <v>485</v>
       </c>
       <c r="G196" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="H196" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="K196" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="L196" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="M196" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="N196" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="O196" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="P196" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="R196" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="S196" s="18" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C197" s="18" t="s">
         <v>947</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B197" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>948</v>
       </c>
       <c r="D197" s="18" t="s">
         <v>376</v>
@@ -8866,18 +8917,18 @@
         <v>358</v>
       </c>
       <c r="G197" s="18" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D198" s="18" t="s">
         <v>0</v>
@@ -8889,248 +8940,248 @@
         <v>358</v>
       </c>
       <c r="G198" s="18" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C199" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F199" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G199" s="18" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G200" s="18" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F201" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G201" s="18" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E202" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G202" s="18" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E203" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F203" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G203" s="18" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F204" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G204" s="18" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E205" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F205" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G205" s="18" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F206" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G206" s="18" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A207" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F207" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G207" s="18" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A208" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C208" s="18" t="s">
         <v>950</v>
       </c>
-      <c r="D199" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E199" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F199" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G199" s="18" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B200" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="D200" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E200" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F200" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G200" s="18" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B201" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>969</v>
-      </c>
-      <c r="D201" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E201" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F201" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G201" s="18" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B202" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C202" s="18" t="s">
-        <v>970</v>
-      </c>
-      <c r="D202" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E202" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F202" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G202" s="18" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B203" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>971</v>
-      </c>
-      <c r="D203" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E203" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F203" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G203" s="18" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B204" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C204" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="D204" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E204" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F204" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G204" s="18" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B205" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C205" s="18" t="s">
-        <v>973</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E205" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F205" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G205" s="18" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B206" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>974</v>
-      </c>
-      <c r="D206" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E206" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F206" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G206" s="18" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B207" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>975</v>
-      </c>
-      <c r="D207" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E207" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F207" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G207" s="18" t="s">
+      <c r="D208" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E208" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F208" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G208" s="18" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="B208" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="C208" s="18" t="s">
-        <v>951</v>
-      </c>
-      <c r="D208" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E208" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F208" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G208" s="18" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D209" s="18" t="s">
         <v>341</v>
@@ -9142,18 +9193,18 @@
         <v>361</v>
       </c>
       <c r="G209" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D210" s="18" t="s">
         <v>341</v>
@@ -9165,18 +9216,18 @@
         <v>361</v>
       </c>
       <c r="G210" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D211" s="18" t="s">
         <v>341</v>
@@ -9188,18 +9239,18 @@
         <v>361</v>
       </c>
       <c r="G211" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D212" s="18" t="s">
         <v>341</v>
@@ -9211,18 +9262,18 @@
         <v>361</v>
       </c>
       <c r="G212" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D213" s="18" t="s">
         <v>341</v>
@@ -9234,18 +9285,18 @@
         <v>361</v>
       </c>
       <c r="G213" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B214" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D214" s="18" t="s">
         <v>341</v>
@@ -9257,18 +9308,18 @@
         <v>361</v>
       </c>
       <c r="G214" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D215" s="18" t="s">
         <v>341</v>
@@ -9280,18 +9331,18 @@
         <v>361</v>
       </c>
       <c r="G215" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D216" s="18" t="s">
         <v>341</v>
@@ -9303,18 +9354,18 @@
         <v>361</v>
       </c>
       <c r="G216" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D217" s="18" t="s">
         <v>341</v>
@@ -9326,18 +9377,18 @@
         <v>361</v>
       </c>
       <c r="G217" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D218" s="18" t="s">
         <v>341</v>
@@ -9349,18 +9400,18 @@
         <v>361</v>
       </c>
       <c r="G218" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C219" s="18" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D219" s="18" t="s">
         <v>341</v>
@@ -9372,18 +9423,18 @@
         <v>361</v>
       </c>
       <c r="G219" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D220" s="18" t="s">
         <v>341</v>
@@ -9395,18 +9446,18 @@
         <v>361</v>
       </c>
       <c r="G220" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D221" s="18" t="s">
         <v>341</v>
@@ -9418,18 +9469,18 @@
         <v>361</v>
       </c>
       <c r="G221" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B222" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C222" s="18" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D222" s="18" t="s">
         <v>341</v>
@@ -9441,18 +9492,18 @@
         <v>361</v>
       </c>
       <c r="G222" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D223" s="18" t="s">
         <v>341</v>
@@ -9464,18 +9515,18 @@
         <v>361</v>
       </c>
       <c r="G223" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D224" s="18" t="s">
         <v>341</v>
@@ -9487,7 +9538,7 @@
         <v>361</v>
       </c>
       <c r="G224" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>

--- a/ideas/OLR/xls_standard_input_IDEAS.xlsx
+++ b/ideas/OLR/xls_standard_input_IDEAS.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="1968">
   <si>
     <t>text</t>
   </si>
@@ -6194,6 +6194,9 @@
   </si>
   <si>
     <t>see_if_it_shows_up.pdf</t>
+  </si>
+  <si>
+    <t>Some guy</t>
   </si>
 </sst>
 </file>
@@ -7230,10 +7233,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7419,11 +7422,11 @@
       <c r="C4" s="18" t="s">
         <v>1966</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>0</v>
-      </c>
       <c r="G4" s="18" t="s">
         <v>1965</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
